--- a/project-management/Zeiterfassung.xlsx
+++ b/project-management/Zeiterfassung.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzehl\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ti-he\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7E74B7B-DB3F-485E-A5D1-DC2B7BC511E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15EBB69-52BF-439A-BFFF-D96C83370EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{C9539E57-4B27-4A86-96E6-434C559DD12C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9539E57-4B27-4A86-96E6-434C559DD12C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Übersicht" sheetId="5" r:id="rId1"/>
-    <sheet name="Timo" sheetId="4" r:id="rId2"/>
-    <sheet name="Judith" sheetId="3" r:id="rId3"/>
-    <sheet name="Nick" sheetId="2" r:id="rId4"/>
-    <sheet name="Tom" sheetId="1" r:id="rId5"/>
+    <sheet name="Zeitübersicht" sheetId="5" r:id="rId1"/>
+    <sheet name="Aufwände" sheetId="6" r:id="rId2"/>
+    <sheet name="Timo" sheetId="4" r:id="rId3"/>
+    <sheet name="Judith" sheetId="3" r:id="rId4"/>
+    <sheet name="Nick" sheetId="2" r:id="rId5"/>
+    <sheet name="Tom" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,9 +28,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>Typ</t>
   </si>
@@ -74,6 +78,30 @@
   <si>
     <t>Tom</t>
   </si>
+  <si>
+    <t>Tatsächlicher Aufwand</t>
+  </si>
+  <si>
+    <t>Schätzung</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Aufwände in Personenstunden</t>
+  </si>
+  <si>
+    <t>Projekt: Gauß-Algorithmus</t>
+  </si>
+  <si>
+    <t>Aufwandsschätzung und -dokumentation</t>
+  </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>Zeitübersicht</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +110,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +128,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -127,15 +163,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -151,7 +188,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,46 +484,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF6663-55A1-4CCA-8A4D-73C27731839E}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C5">
         <f>Timo!C1</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <f>Judith!C1</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C7">
         <f>Nick!C1</f>
         <v>0.75</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C8">
         <f>Tom!C1</f>
         <v>0.75</v>
       </c>
@@ -497,112 +544,2543 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD498BAD-DB0F-4380-B250-329E8F069289}">
-  <dimension ref="B1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACED3E2-936C-42EC-B20A-4C58E4C9CB18}">
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection activeCell="D357" sqref="D357"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1">
-        <f>SUM(D3:D999)</f>
-        <v>0.75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1">
-        <f>C1/210</f>
-        <v>3.5714285714285713E-3</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>0.75</v>
-      </c>
-      <c r="E3" s="3">
-        <v>44939</v>
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <f>C6-B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <f t="shared" ref="D7:D70" si="0">C7-B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <f t="shared" ref="D71:D134" si="1">C71-B71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D132">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D133">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D134">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D135">
+        <f t="shared" ref="D135:D198" si="2">C135-B135</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D195">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D196">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D197">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D198">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D199">
+        <f t="shared" ref="D199:D262" si="3">C199-B199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D258">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D259">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D260">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D261">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D262">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <f t="shared" ref="D263:D326" si="4">C263-B263</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D322">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D323">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D324">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D325">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D326">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D327">
+        <f t="shared" ref="D327:D390" si="5">C327-B327</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D371">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D372">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D373">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D374">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D375">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D376">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D377">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D378">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D379">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D380">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D381">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D382">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D383">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D384">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D385">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D386">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D387">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D388">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D389">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D390">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D391">
+        <f t="shared" ref="D391:D415" si="6">C391-B391</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D392">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D393">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D394">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D395">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D396">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D397">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D398">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D399">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D400">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D401">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D402">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D403">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D404">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D405">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D406">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D407">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D408">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D409">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D410">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D411">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D412">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D413">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D414">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D415">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{D9B4E280-024C-4E9C-81A5-D4D12BC6535B}">
-      <formula1>0</formula1>
-      <formula2>24</formula2>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A1B92A-DDC7-4875-9DBF-96E1BBBCE8C9}">
-  <dimension ref="B1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD498BAD-DB0F-4380-B250-329E8F069289}">
+  <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1">
-        <f>SUM(D3:D999)</f>
+        <f>SUM(E3:E999)</f>
         <v>0.75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <f>C1/210</f>
         <v>3.5714285714285713E-3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -610,29 +3088,32 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.75</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>44939</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{F7839C8E-1BAB-41A2-9A8D-6212FC1FE6CF}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{D9B4E280-024C-4E9C-81A5-D4D12BC6535B}">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
@@ -643,39 +3124,38 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A92937-8086-4848-807B-99CF7905EE99}">
-  <dimension ref="B1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A1B92A-DDC7-4875-9DBF-96E1BBBCE8C9}">
+  <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1">
-        <f>SUM(D3:D999)</f>
         <v>0.75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <f>C1/210</f>
         <v>3.5714285714285713E-3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -683,29 +3163,32 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.75</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>44939</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{164B799C-B0BB-4BC8-B9D7-6F3DE966EF94}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576 E3" xr:uid="{F7839C8E-1BAB-41A2-9A8D-6212FC1FE6CF}">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
@@ -716,39 +3199,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B68E90-ADFF-4A29-9D28-6CE5F0C74A67}">
-  <dimension ref="B1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A92937-8086-4848-807B-99CF7905EE99}">
+  <dimension ref="B1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="16.26953125" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>5</v>
       </c>
       <c r="C1">
-        <f>SUM(D3:D999)</f>
+        <f>SUM(E3:E999)</f>
         <v>0.75</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <f>C1/210</f>
         <v>3.5714285714285713E-3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -756,29 +3239,108 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.75</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>44939</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576" xr:uid="{DC59437B-B3AF-43CC-AD42-B1F063958FE0}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{164B799C-B0BB-4BC8-B9D7-6F3DE966EF94}">
+      <formula1>0</formula1>
+      <formula2>24</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B68E90-ADFF-4A29-9D28-6CE5F0C74A67}">
+  <dimension ref="B1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <f>SUM(E3:E999)</f>
+        <v>0.75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1">
+        <f>C1/210</f>
+        <v>3.5714285714285713E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>0.75</v>
+      </c>
+      <c r="F3" s="3">
+        <v>44939</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{DC59437B-B3AF-43CC-AD42-B1F063958FE0}">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
@@ -789,6 +3351,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100270228C396995B4CBE07544A7F537CBA" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b144f89021983022e7211a38f516d6a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="118c82b6-c210-4097-8a77-3ba19902ed22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97ebda3c8ae81d01359ff8780e7a4eca" ns3:_="">
     <xsd:import namespace="118c82b6-c210-4097-8a77-3ba19902ed22"/>
@@ -920,22 +3497,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABE5937-844D-4A18-9AF1-E096F729D53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="118c82b6-c210-4097-8a77-3ba19902ed22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D114C3-36CD-4493-85DF-F29F511974AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2913E3E-F86A-41A5-BC56-151B3823A8C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -951,28 +3537,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D114C3-36CD-4493-85DF-F29F511974AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABE5937-844D-4A18-9AF1-E096F729D53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="118c82b6-c210-4097-8a77-3ba19902ed22"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/project-management/Zeiterfassung.xlsx
+++ b/project-management/Zeiterfassung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ti-he\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ti-he\OneDrive\Dokumente\Duales Studium\Theoriephasen\5. Theoriephase\Projekt - Projektkonzeption (W3WI_106.2)\Gaussian-Elimination-GUI\project-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E15EBB69-52BF-439A-BFFF-D96C83370EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA6B0C-AB40-4B4E-9871-CA679ABA1895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9539E57-4B27-4A86-96E6-434C559DD12C}"/>
   </bookViews>
@@ -41,12 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
   <si>
     <t>Typ</t>
-  </si>
-  <si>
-    <t>Zeit</t>
   </si>
   <si>
     <t>Bezeichnung</t>
@@ -56,9 +53,6 @@
   </si>
   <si>
     <t>Kundenkontakt</t>
-  </si>
-  <si>
-    <t>SUMME</t>
   </si>
   <si>
     <t>Von Budget:</t>
@@ -101,6 +95,39 @@
   </si>
   <si>
     <t>Zeitübersicht</t>
+  </si>
+  <si>
+    <t>Nachbereitung Kick-Off-Meeting</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Set-Up Projektmanagement</t>
+  </si>
+  <si>
+    <t>Entwurf Matrizenrechnung</t>
+  </si>
+  <si>
+    <t>Entwurf Matrixoperationen</t>
+  </si>
+  <si>
+    <t>Entwurf GL-System</t>
+  </si>
+  <si>
+    <t>Entwurf Matrixinversion</t>
+  </si>
+  <si>
+    <t>Entwurf Startseite</t>
+  </si>
+  <si>
+    <t>SUMME in h</t>
+  </si>
+  <si>
+    <t>Zeit in h</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -484,58 +511,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF6663-55A1-4CCA-8A4D-73C27731839E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f>Timo!C1</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <f>Judith!C1</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <f>Nick!C1</f>
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <f>Tom!C1</f>
-        <v>0.75</v>
+        <v>3.5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -548,7 +587,7 @@
   <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D357" sqref="D357"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,56 +599,86 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
       <c r="D6">
         <f>C6-B6</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0.75</v>
+      </c>
       <c r="D7">
         <f t="shared" ref="D7:D70" si="0">C7-B7</f>
-        <v>0</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>1.5</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3049,16 +3118,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD498BAD-DB0F-4380-B250-329E8F069289}">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="24.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" customWidth="1"/>
@@ -3066,49 +3135,77 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1">
         <f>SUM(E3:E999)</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
         <f>C1/210</f>
-        <v>3.5714285714285713E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="E3">
         <v>0.75</v>
       </c>
       <c r="F3" s="3">
         <v>44939</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44940</v>
       </c>
     </row>
   </sheetData>
@@ -3125,11 +3222,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1A1B92A-DDC7-4875-9DBF-96E1BBBCE8C9}">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3142,42 +3239,43 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1">
-        <v>0.75</v>
+        <f>SUM(E3:E999)</f>
+        <v>3.5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
         <f>C1/210</f>
-        <v>3.5714285714285713E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="E3">
         <v>0.75</v>
@@ -3186,9 +3284,37 @@
         <v>44939</v>
       </c>
     </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44940</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D1048576 E3" xr:uid="{F7839C8E-1BAB-41A2-9A8D-6212FC1FE6CF}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 D6:D1048576" xr:uid="{F7839C8E-1BAB-41A2-9A8D-6212FC1FE6CF}">
       <formula1>0</formula1>
       <formula2>24</formula2>
     </dataValidation>
@@ -3200,11 +3326,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A92937-8086-4848-807B-99CF7905EE99}">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,49 +3343,77 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1">
         <f>SUM(E3:E999)</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
         <f>C1/210</f>
-        <v>3.5714285714285713E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="E3">
         <v>0.75</v>
       </c>
       <c r="F3" s="3">
         <v>44939</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44940</v>
       </c>
     </row>
   </sheetData>
@@ -3276,11 +3430,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B68E90-ADFF-4A29-9D28-6CE5F0C74A67}">
-  <dimension ref="B1:F3"/>
+  <dimension ref="B1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3293,49 +3447,77 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C1">
         <f>SUM(E3:E999)</f>
-        <v>0.75</v>
+        <v>3.5</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1">
         <f>C1/210</f>
-        <v>3.5714285714285713E-3</v>
+        <v>1.6666666666666666E-2</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
       <c r="E3">
         <v>0.75</v>
       </c>
       <c r="F3" s="3">
         <v>44939</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="3">
+        <v>44939</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>44940</v>
       </c>
     </row>
   </sheetData>
@@ -3351,12 +3533,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3365,7 +3541,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100270228C396995B4CBE07544A7F537CBA" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b144f89021983022e7211a38f516d6a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="118c82b6-c210-4097-8a77-3ba19902ed22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97ebda3c8ae81d01359ff8780e7a4eca" ns3:_="">
     <xsd:import namespace="118c82b6-c210-4097-8a77-3ba19902ed22"/>
@@ -3497,23 +3673,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABE5937-844D-4A18-9AF1-E096F729D53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="118c82b6-c210-4097-8a77-3ba19902ed22"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D114C3-36CD-4493-85DF-F29F511974AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -3521,7 +3687,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2913E3E-F86A-41A5-BC56-151B3823A8C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3537,4 +3703,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABE5937-844D-4A18-9AF1-E096F729D53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="118c82b6-c210-4097-8a77-3ba19902ed22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/project-management/Zeiterfassung.xlsx
+++ b/project-management/Zeiterfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ti-he\OneDrive\Dokumente\Duales Studium\Theoriephasen\5. Theoriephase\Projekt - Projektkonzeption (W3WI_106.2)\Gaussian-Elimination-GUI\project-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA6B0C-AB40-4B4E-9871-CA679ABA1895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51700CE4-7A25-48E7-B765-B99335763CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C9539E57-4B27-4A86-96E6-434C559DD12C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C9539E57-4B27-4A86-96E6-434C559DD12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitübersicht" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Typ</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>Mockup GL-System lösen</t>
+  </si>
+  <si>
+    <t>Entwurf</t>
   </si>
 </sst>
 </file>
@@ -513,35 +519,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFF6663-55A1-4CCA-8A4D-73C27731839E}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5">
         <f>Timo!C1</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -553,7 +559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -565,7 +571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -587,27 +593,27 @@
   <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -621,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -633,7 +639,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -645,19 +651,22 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <v>1.5</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -669,7 +678,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -681,2431 +690,2431 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D71">
         <f t="shared" ref="D71:D134" si="1">C71-B71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D135">
         <f t="shared" ref="D135:D198" si="2">C135-B135</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D136">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D145">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D147">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D148">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D149">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D150">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D153">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D157">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D161">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D162">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D164">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D165">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D174">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D175">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D176">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D180">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D184">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D185">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D188">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D191">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D195">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D196">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D197">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D199">
         <f t="shared" ref="D199:D262" si="3">C199-B199</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D201">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D202">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D203">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D204">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D205">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D208">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D209">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D210">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D211">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D212">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D213">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D214">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D215">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D216">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D217">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D218">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D219">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D220">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D224">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D225">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D226">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D227">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D228">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D229">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D230">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D231">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D237">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D239">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D240">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D242">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D243">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D244">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D245">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D246">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D247">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D248">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D250">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D251">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D252">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D253">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D254">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D255">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D256">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D257">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D258">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D259">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D260">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D261">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D262">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D263">
         <f t="shared" ref="D263:D326" si="4">C263-B263</f>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D264">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D267">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D270">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D271">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D272">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D273">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D274">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D275">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D276">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D277">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D278">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D279">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D280">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D281">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D282">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D283">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D284">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D285">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D286">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D288">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D289">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D291">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D293">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D294">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D295">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D296">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D297">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D298">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D299">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D300">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D301">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D302">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D303">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D304">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D305">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D306">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D308">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D309">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D310">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D311">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D312">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D313">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D314">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D315">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D320">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D321">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D322">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D323">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D324">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D326">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D327">
         <f t="shared" ref="D327:D390" si="5">C327-B327</f>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D328">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D329">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D330">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D331">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D332">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D333">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D334">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D335">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D336">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D337">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D338">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D339">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D340">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D341">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D342">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D343">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D344">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D345">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D347">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D348">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D349">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D350">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D351">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D352">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D353">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D354">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D355">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D356">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D357">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D358">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D359">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D360">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D361">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D362">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D363">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D364">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D365">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D366">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D367">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D368">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D369">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D370">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D371">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D372">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D373">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D374">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D375">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D376">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D377">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D378">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D379">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D380">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D381">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D382">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D383">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D384">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D385">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D386">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D387">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D388">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D389">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D390">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D391">
         <f t="shared" ref="D391:D415" si="6">C391-B391</f>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D392">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D393">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D394">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D395">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D396">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D397">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D398">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D399">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D400">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D401">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D402">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D403">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D404">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D405">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D406">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D407">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D408">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D409">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D410">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D411">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D412">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D413">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D414">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D415">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3118,38 +3127,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD498BAD-DB0F-4380-B250-329E8F069289}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
       <c r="C1">
         <f>SUM(E3:E999)</f>
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
         <f>C1/210</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+        <v>2.6190476190476191E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3189,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3194,7 +3203,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3206,6 +3215,23 @@
       </c>
       <c r="F5" s="3">
         <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44942</v>
       </c>
     </row>
   </sheetData>
@@ -3229,15 +3255,15 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -3253,7 +3279,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3270,7 +3296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3284,7 +3310,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3298,7 +3324,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3333,15 +3359,15 @@
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -3357,7 +3383,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3374,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3388,7 +3414,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3402,7 +3428,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3437,15 +3463,15 @@
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -3461,7 +3487,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3478,7 +3504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3492,7 +3518,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3506,7 +3532,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3533,15 +3559,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100270228C396995B4CBE07544A7F537CBA" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b144f89021983022e7211a38f516d6a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="118c82b6-c210-4097-8a77-3ba19902ed22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97ebda3c8ae81d01359ff8780e7a4eca" ns3:_="">
     <xsd:import namespace="118c82b6-c210-4097-8a77-3ba19902ed22"/>
@@ -3673,6 +3690,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3680,14 +3706,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D114C3-36CD-4493-85DF-F29F511974AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2913E3E-F86A-41A5-BC56-151B3823A8C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3701,6 +3719,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D114C3-36CD-4493-85DF-F29F511974AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/project-management/Zeiterfassung.xlsx
+++ b/project-management/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ti-he\OneDrive\Dokumente\Duales Studium\Theoriephasen\5. Theoriephase\Projekt - Projektkonzeption (W3WI_106.2)\Gaussian-Elimination-GUI\project-management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tzehl\Documents\python_shit\Gaussian-Elimination-GUI\project-management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51700CE4-7A25-48E7-B765-B99335763CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65C7DA6-9CE5-47EF-894A-D1E508791975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C9539E57-4B27-4A86-96E6-434C559DD12C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{C9539E57-4B27-4A86-96E6-434C559DD12C}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitübersicht" sheetId="5" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="32">
   <si>
     <t>Typ</t>
   </si>
@@ -135,6 +135,9 @@
   <si>
     <t>Entwurf</t>
   </si>
+  <si>
+    <t>Mock-Up Matrizenberechnungen</t>
+  </si>
 </sst>
 </file>
 
@@ -204,8 +207,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Prozent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -221,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -523,19 +526,19 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>6</v>
       </c>
@@ -547,7 +550,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>7</v>
       </c>
@@ -559,7 +562,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>8</v>
       </c>
@@ -571,13 +574,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8">
         <f>Tom!C1</f>
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -592,28 +595,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACED3E2-936C-42EC-B20A-4C58E4C9CB18}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -627,19 +630,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
+      <c r="C6">
+        <v>1.25</v>
+      </c>
       <c r="D6">
         <f>C6-B6</f>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -651,7 +657,7 @@
         <v>-0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -666,7 +672,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -678,7 +684,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -690,2431 +696,2431 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D71">
         <f t="shared" ref="D71:D134" si="1">C71-B71</f>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D132">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D133">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D134">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D135">
         <f t="shared" ref="D135:D198" si="2">C135-B135</f>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D136">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D145">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D147">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D148">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D149">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D150">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D153">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D157">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D161">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D162">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D164">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D165">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D172">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D174">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D175">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D176">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D180">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D184">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D185">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D188">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D191">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D192">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D195">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D196">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D197">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D198">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D199">
         <f t="shared" ref="D199:D262" si="3">C199-B199</f>
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D201">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D202">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D203">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D204">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D205">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D208">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D209">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D210">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D211">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D212">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D213">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D214">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D215">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D216">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D217">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D218">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D219">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D220">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D222">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D223">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D224">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D225">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D226">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D227">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D228">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D229">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D230">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D231">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D237">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D239">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D240">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D242">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D243">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D244">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D245">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D246">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D247">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D248">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D249">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D250">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D251">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D252">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D253">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D254">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D255">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D256">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D257">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D258">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D259">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D260">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D261">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D262">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D263">
         <f t="shared" ref="D263:D326" si="4">C263-B263</f>
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D264">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D265">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D266">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D267">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D268">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D269">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D270">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D271">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D272">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D273">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D274">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D275">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D276">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D277">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D278">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D279">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D280">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D281">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D282">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D283">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D284">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D285">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D286">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D287">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D288">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D289">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D290">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D291">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D292">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D293">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D294">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D295">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D296">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D297">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D298">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D299">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D300">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D301">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D302">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D303">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D304">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D305">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D306">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D307">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D308">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D309">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D310">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D311">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D312">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D313">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D314">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D315">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D316">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D317">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D318">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D319">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D320">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D321">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D322">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D323">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D324">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D325">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D326">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D327">
         <f t="shared" ref="D327:D390" si="5">C327-B327</f>
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D328">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D329">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D330">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D331">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D332">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D333">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D334">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D335">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D336">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D337">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D338">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D339">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D340">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D341">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D342">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D343">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D344">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D345">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D346">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D347">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D348">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D349">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D350">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D351">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D352">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D353">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D354">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D355">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D356">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D357">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D358">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D359">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D360">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D361">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D362">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D363">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D364">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D365">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D366">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D367">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D368">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D369">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D370">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D371">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D372">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D373">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D374">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D375">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D376">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D377">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D378">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D379">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D380">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D381">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D382">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D383">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D384">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D385">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D386">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D387">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D388">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D389">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D390">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D391">
         <f t="shared" ref="D391:D415" si="6">C391-B391</f>
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D392">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D393">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D394">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D395">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D396">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D397">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D398">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D399">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D400">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D401">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D402">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D403">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D404">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D405">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D406">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D407">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D408">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D409">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D410">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D411">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D412">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D413">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D414">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D415">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -3129,20 +3135,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD498BAD-DB0F-4380-B250-329E8F069289}">
   <dimension ref="B1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -3158,7 +3164,7 @@
         <v>2.6190476190476191E-2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3175,7 +3181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3203,7 +3209,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3217,7 +3223,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>29</v>
       </c>
@@ -3255,15 +3261,15 @@
       <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="10.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -3279,7 +3285,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3296,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3310,7 +3316,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3324,7 +3330,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3359,15 +3365,15 @@
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
@@ -3383,7 +3389,7 @@
         <v>1.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3456,38 +3462,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38B68E90-ADFF-4A29-9D28-6CE5F0C74A67}">
-  <dimension ref="B1:F5"/>
+  <dimension ref="B1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="26.90625" customWidth="1"/>
+    <col min="3" max="4" width="24.453125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>26</v>
       </c>
       <c r="C1">
         <f>SUM(E3:E999)</f>
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1">
         <f>C1/210</f>
-        <v>1.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+        <v>2.2619047619047618E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3504,7 +3510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -3518,7 +3524,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>18</v>
       </c>
@@ -3532,7 +3538,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -3544,6 +3550,20 @@
       </c>
       <c r="F5" s="3">
         <v>44940</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6">
+        <v>1.25</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44943</v>
       </c>
     </row>
   </sheetData>
@@ -3559,6 +3579,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100270228C396995B4CBE07544A7F537CBA" ma:contentTypeVersion="2" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b144f89021983022e7211a38f516d6a4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="118c82b6-c210-4097-8a77-3ba19902ed22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97ebda3c8ae81d01359ff8780e7a4eca" ns3:_="">
     <xsd:import namespace="118c82b6-c210-4097-8a77-3ba19902ed22"/>
@@ -3690,22 +3725,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABE5937-844D-4A18-9AF1-E096F729D53D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="118c82b6-c210-4097-8a77-3ba19902ed22"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D114C3-36CD-4493-85DF-F29F511974AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2913E3E-F86A-41A5-BC56-151B3823A8C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3721,28 +3765,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24D114C3-36CD-4493-85DF-F29F511974AE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EABE5937-844D-4A18-9AF1-E096F729D53D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="118c82b6-c210-4097-8a77-3ba19902ed22"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>